--- a/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/9_Sep24_Sep23.xlsx
+++ b/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/9_Sep24_Sep23.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>54,294.50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>56,772.58</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58,144.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58,714.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>59,389.81</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>58,714.89</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>58,144.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>56,772.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>54,294.50</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>59389.81</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>54294.5</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>57463.352</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>11,639.51</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12,215.78</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11,597.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12,543.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>12,631.60</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12,543.82</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11,597.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12,215.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11,639.51</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>12631.6</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>11597.75</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>12125.692</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>412.91</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>376.07</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>459.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>472.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>674.74</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>472.89</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>459.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>376.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>412.91</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>674.74</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>376.07</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>479.25</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1,351.47</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,218.18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,270.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,301.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1,320.76</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,301.55</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,270.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,218.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1,351.47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1351.47</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1218.18</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1292.468</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>10,707.84</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11,137.04</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18,166.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10,668.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>11,482.73</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10,668.11</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18,166.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11,137.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10,707.84</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>18166.25</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>10668.11</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>12432.394</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>40,313.16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>42,111.27</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42,395.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43,196.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>43,903.01</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>43,196.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>42,395.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>42,111.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>40,313.16</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>43903.01</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>40313.16</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>42383.874</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>5,170.19</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5,351.76</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6,936.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5,848.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>5,985.30</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5,848.88</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6,936.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5,351.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5,170.19</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>6936.19</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>5170.19</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>5858.464</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>10,229.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10,609.32</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11,032.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10,771.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>10,905.59</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10,771.74</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11,032.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10,609.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10,229.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>11032.64</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>10229</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>10709.658</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>22,693.88</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23,647.30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29,274.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23,884.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>24,705.74</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>23,884.64</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>29,274.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>23,647.30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>22,693.88</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>29274.24</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>22693.88</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>24841.16</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,903.83</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,216.64</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13,511.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,602.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,700.46</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,602.06</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>13,511.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4,216.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,903.83</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>13511.64</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2602.06</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>5186.926</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>19,790.05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19,430.66</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15,762.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21,282.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>22,005.28</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21,282.58</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15,762.60</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>19,430.66</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>19,790.05</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>22005.28</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>15762.6</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>19654.234</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>3,813.94</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,058.12</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-749.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5,107.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>5,184.31</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5,107.83</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-749.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,058.12</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3,813.94</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>5184.31</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-749.25</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3282.99</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>15,976.11</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16,372.54</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16,511.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>16,174.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>16,820.97</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16,174.75</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16,511.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>16,372.54</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>15,976.11</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>16820.97</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>15976.11</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>16371.244</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>15,976.11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16,372.54</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16,511.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>16,174.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>16,820.97</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16,174.75</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>16,511.85</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>16,372.54</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>15,976.11</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>16820.97</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>15976.11</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>16371.244</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>758.18</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>759.25</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>759.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>760.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>763.08</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>760.81</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>759.69</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>759.25</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>758.18</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>763.08</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>758.1799999999999</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>760.202</v>
       </c>
     </row>
     <row r="21"/>
@@ -1151,37 +993,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>22.08</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>21.28</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>21.74</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>21.13</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>21.562</v>
       </c>
     </row>
     <row r="26">
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>21.98</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>21.19</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>21.02</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>21.47</v>
       </c>
     </row>
     <row r="27"/>
@@ -1241,37 +1065,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>22.08</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>21.28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>21.74</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>21.13</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>21.562</v>
       </c>
     </row>
     <row r="30">
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>21.98</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>21.19</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>21.02</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>21.47</v>
       </c>
     </row>
     <row r="31"/>
@@ -1331,37 +1137,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>31,577.89</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>31,011.67</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>31,173.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33,025.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>34,250.62</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>33,025.69</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>31,173.32</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>31,011.67</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>31,577.89</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>34250.62</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>31011.67</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>32207.838</v>
       </c>
     </row>
     <row r="34">
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>8,072.79</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>7,664.10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8,091.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>9,508.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>10,308.54</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>9,508.44</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8,091.74</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7,664.10</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>8,072.79</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>10308.54</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>7664.1</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>8729.121999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>1.36</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>1.306</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>0.41</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.358</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>0.49</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.47</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>0.49</t>
         </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.488</v>
       </c>
     </row>
     <row r="38"/>
@@ -1568,37 +1329,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>202409</t>
         </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>202406</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>202403</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>202312</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>202309</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>202409</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>202309</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>202367.8</v>
       </c>
     </row>
   </sheetData>
